--- a/Options Payoff Calculator v4.0.xlsx
+++ b/Options Payoff Calculator v4.0.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NSE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB03B04-C8C6-4FE0-BD93-214BB89FD3B6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC4D9FE-62CF-49F4-9FCC-FD0DA26EDE3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{16B5AB51-9D4A-4BEA-944E-FEC17FE4EEC2}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
   <si>
     <t>P</t>
   </si>
@@ -856,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E6AF99-A56E-4CD8-9ED9-F4ACDD0ED70D}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -877,7 +877,7 @@
     <col min="12" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="24" t="s">
         <v>28</v>
       </c>
@@ -888,7 +888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13.8" thickBot="1">
+    <row r="2" spans="1:11" ht="13.8" thickBot="1">
       <c r="A2" s="27" t="s">
         <v>22</v>
       </c>
@@ -896,22 +896,22 @@
         <v>3000</v>
       </c>
       <c r="C2" s="29">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="32" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -943,9 +943,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="4">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>4</v>
@@ -954,34 +954,34 @@
         <v>3</v>
       </c>
       <c r="D6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="5">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="5">
-        <f>IF(A6&gt;0,E6*D6*B$2,0)</f>
-        <v>1200</v>
+        <f t="shared" ref="G6:G10" si="0">IF(A6&gt;0,E6*D6*B$2,0)</f>
+        <v>0</v>
       </c>
       <c r="H6" s="5">
         <f>IF(A6&gt; 0, G6,0)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="I6" s="5">
         <f>IF(A6&gt;0,MAX(0,(C$2-A6)))*B$2*D6*-1</f>
         <v>0</v>
       </c>
       <c r="J6" s="5">
-        <f>H6+I6</f>
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <f t="shared" ref="J6:J10" si="1">H6+I6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="4">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>4</v>
@@ -990,34 +990,34 @@
         <v>3</v>
       </c>
       <c r="D7" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="5">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="5">
-        <f>IF(A7&gt;0,E7*D7*B$2,0)</f>
-        <v>3600</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H7" s="5">
         <f>IF(A7&gt; 0, G7,0)</f>
-        <v>3600</v>
+        <v>0</v>
       </c>
       <c r="I7" s="5">
         <f>IF(A7&gt;0,MAX(0,(C$2-A7)))*B$2*D7*-1</f>
         <v>0</v>
       </c>
       <c r="J7" s="5">
-        <f>H7+I7</f>
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="4">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>0</v>
@@ -1026,70 +1026,70 @@
         <v>3</v>
       </c>
       <c r="D8" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="5">
-        <f>IF(A8&gt;0,E8*D8*B$2,0)</f>
-        <v>12000</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="H8" s="5">
         <f>IF(A8 &gt; 0, G8, 0)</f>
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="I8" s="5">
         <f>MAX(0, A8-C$2)*B$2*D8*-1</f>
-        <v>-33000</v>
+        <v>0</v>
       </c>
       <c r="J8" s="5">
-        <f>H8+I8</f>
-        <v>-21000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="4">
-        <v>295</v>
+        <v>350</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
       </c>
       <c r="E9" s="5">
-        <v>5</v>
+        <v>9.4</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="5">
-        <f>IF(A9&gt;0,E9*D9*B$2,0)</f>
-        <v>15000</v>
+        <f t="shared" si="0"/>
+        <v>28200</v>
       </c>
       <c r="H9" s="5">
-        <f>IF(A9 &gt; 0, G9, 0)</f>
-        <v>15000</v>
+        <f>MAX(0,A9-C$2)*B$2*D9*1</f>
+        <v>0</v>
       </c>
       <c r="I9" s="5">
-        <f>MAX(0, A9-C$2)*B$2*D9*-1</f>
-        <v>-48000</v>
+        <f>G9*-1</f>
+        <v>-28200</v>
       </c>
       <c r="J9" s="5">
-        <f>H9+I9</f>
-        <v>-33000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <f t="shared" si="1"/>
+        <v>-28200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="4">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>4</v>
@@ -1101,516 +1101,300 @@
         <v>1</v>
       </c>
       <c r="E10" s="5">
-        <v>1</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G10" s="5">
-        <f>IF(A10&gt;0,E10*D10*B$2,0)</f>
-        <v>3000</v>
+        <f t="shared" si="0"/>
+        <v>25349.999999999996</v>
       </c>
       <c r="H10" s="5">
         <f>MIN(0,A10-C$2)*B$2*D10*-1</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I10" s="5">
         <f>G10*-1</f>
-        <v>-3000</v>
+        <v>-25349.999999999996</v>
       </c>
       <c r="J10" s="5">
-        <f>H10+I10</f>
-        <v>-3000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="4">
-        <v>310</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="4" t="s">
+        <f t="shared" si="1"/>
+        <v>-22349.999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="18">
+        <f>SUM(H6:H11)</f>
+        <v>3000</v>
+      </c>
+      <c r="I12" s="18">
+        <f>SUM(I6:I11)</f>
+        <v>-53550</v>
+      </c>
+      <c r="J12" s="18">
+        <f>SUM(H12:I12)</f>
+        <v>-50550</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="7"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="34">
+        <v>0</v>
+      </c>
+      <c r="B16" s="35"/>
+      <c r="C16" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="30">
+        <v>0</v>
+      </c>
+      <c r="E16" s="31"/>
+      <c r="F16" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="44"/>
+      <c r="H16" s="34">
+        <f>MAX(C$2-A16,0)*B$2*D16</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="34">
+        <f>MIN(C$2-A16,0)*B$2*D16</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="34">
+        <f>H16+I16</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="34">
+        <v>0</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D17" s="30">
+        <v>0</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="44"/>
+      <c r="H17" s="34">
+        <f>MAX(A17-C$2,0)*B$2*D17</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="34">
+        <f>MIN(A17-C$2,0)*B$2*D17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="34">
+        <f>H17+I17</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="5">
+        <v>0</v>
+      </c>
+      <c r="B18" s="36"/>
+      <c r="C18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="5">
-        <v>3.35</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="45"/>
+      <c r="H18" s="5">
+        <f>MAX(C$2-A18,0)*B$2*D18</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <f>MIN(C$2-A18,0)*B$2*D18</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <f>H18+I18</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="5">
+        <v>0</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G11" s="5">
-        <f>IF(A11&gt;0,E11*D11*B$2,0)</f>
-        <v>10050</v>
-      </c>
-      <c r="H11" s="5">
-        <f>IF(A11&gt; 0, G11,0)</f>
-        <v>10050</v>
-      </c>
-      <c r="I11" s="5">
-        <f>IF(A11&gt;0,MAX(0,(C$2-A11)))*B$2*D11*-1</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
-        <f>H11+I11</f>
-        <v>10050</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="4">
-        <v>295</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1.85</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="5">
-        <f>IF(A12&gt;0,E12*D12*B$2,0)</f>
-        <v>5550</v>
-      </c>
-      <c r="H12" s="5">
-        <f>MAX(0,C$2-A12)*B$2*D12*-1</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <f>G12*-1</f>
-        <v>-5550</v>
-      </c>
-      <c r="J12" s="5">
-        <f>H12+I12</f>
-        <v>-5550</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="4">
-        <v>280</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5">
-        <v>2.0499999999999998</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="5">
-        <f>IF(A13&gt;0,E13*D13*B$2,0)</f>
-        <v>6149.9999999999991</v>
-      </c>
-      <c r="H13" s="5">
-        <f>MAX(0,A13-C$2)*B$2*D13*1</f>
+      <c r="G19" s="45"/>
+      <c r="H19" s="5">
+        <f>MAX(A19-C$2,0)*B$2*D19</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <f>MIN(A19-C$2,0)*B$2*D19</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <f>H19+I19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="G20" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="19">
+        <f>SUM(H18)</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="19">
+        <f>SUM(I18)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="19">
+        <f>SUM(J18:J19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="13.8" thickBot="1"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1">
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="22">
+        <f>H12+H20</f>
         <v>3000</v>
       </c>
-      <c r="I13" s="5">
-        <f>G13*-1</f>
-        <v>-6149.9999999999991</v>
-      </c>
-      <c r="J13" s="5">
-        <f>H13+I13</f>
-        <v>-3149.9999999999991</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="4">
-        <v>285</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5">
-        <v>3.8</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" s="5">
-        <f>IF(A14&gt;0,E14*D14*B$2,0)</f>
-        <v>11400</v>
-      </c>
-      <c r="H14" s="5">
-        <f>IF(A14&gt; 0, G14,0)</f>
-        <v>11400</v>
-      </c>
-      <c r="I14" s="5">
-        <f>IF(A14&gt;0,MAX(0,(C$2-A14)))*B$2*D14*-1</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="5">
-        <f>H14+I14</f>
-        <v>11400</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="4">
-        <v>295</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="4">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="5">
-        <f>IF(A15&gt;0,E15*D15*B$2,0)</f>
-        <v>1200</v>
-      </c>
-      <c r="H15" s="5">
-        <f>MIN(0,A15-C$2)*B$2*D15*-1</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
-        <f>G15*-1</f>
-        <v>-1200</v>
-      </c>
-      <c r="J15" s="5">
-        <f>H15+I15</f>
-        <v>-1200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="4">
-        <v>340</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="4">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="5">
-        <f>IF(A16&gt;0,E16*D16*B$2,0)</f>
-        <v>2700</v>
-      </c>
-      <c r="H16" s="5">
-        <f>MIN(0,A16-C$2)*B$2*D16*-1</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
-        <f>G16*-1</f>
-        <v>-2700</v>
-      </c>
-      <c r="J16" s="5">
-        <f>H16+I16</f>
-        <v>-2700</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="18">
-        <f>SUM(H15:H17)</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="18">
-        <f>SUM(I15:I17)</f>
-        <v>-3900</v>
-      </c>
-      <c r="J18" s="18">
-        <f>SUM(H18:I18)</f>
-        <v>-3900</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="34">
-        <v>297.10000000000002</v>
-      </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="30">
-        <v>1</v>
-      </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="34">
-        <f>MAX(C$2-A22,0)*B$2*D22</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="34">
-        <f>MIN(C$2-A22,0)*B$2*D22</f>
-        <v>-54300.000000000065</v>
-      </c>
-      <c r="J22" s="34">
-        <f>H22+I22</f>
-        <v>-54300.000000000065</v>
-      </c>
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="34">
-        <v>297.39999999999998</v>
-      </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="30">
-        <v>1</v>
-      </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="G23" s="44"/>
-      <c r="H23" s="34">
-        <f>MAX(A23-C$2,0)*B$2*D23</f>
-        <v>55199.999999999935</v>
-      </c>
-      <c r="I23" s="34">
-        <f>MIN(A23-C$2,0)*B$2*D23</f>
-        <v>0</v>
-      </c>
-      <c r="J23" s="34">
-        <f>H23+I23</f>
-        <v>55199.999999999935</v>
-      </c>
-      <c r="K23" s="7"/>
+      <c r="I22" s="22">
+        <f>I12+I20</f>
+        <v>-53550</v>
+      </c>
+      <c r="J22" s="23">
+        <f>J12+J20</f>
+        <v>-50550</v>
+      </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="5">
-        <v>305.95</v>
-      </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="4">
-        <v>1</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="45"/>
-      <c r="H24" s="5">
-        <f>MAX(C$2-A24,0)*B$2*D24</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="5">
-        <f>MIN(C$2-A24,0)*B$2*D24</f>
-        <v>-80849.999999999971</v>
-      </c>
-      <c r="J24" s="5">
-        <f>H24+I24</f>
-        <v>-80849.999999999971</v>
-      </c>
-      <c r="K24" s="7"/>
+      <c r="A24" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="5">
-        <v>0</v>
-      </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G25" s="45"/>
-      <c r="H25" s="5">
-        <f>MAX(A25-C$2,0)*B$2*D25</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="5">
-        <f>MIN(A25-C$2,0)*B$2*D25</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="5">
-        <f>H25+I25</f>
-        <v>0</v>
+      <c r="A25" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="G26" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="19">
-        <f>SUM(H24)</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="19">
-        <f>SUM(I24)</f>
-        <v>-80849.999999999971</v>
-      </c>
-      <c r="J26" s="19">
-        <f>SUM(J24:J25)</f>
-        <v>-80849.999999999971</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="13.8" thickBot="1"/>
-    <row r="28" spans="1:11" ht="15" thickBot="1">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="H28" s="22">
-        <f>H18+H26</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="22">
-        <f>I18+I26</f>
-        <v>-84749.999999999971</v>
-      </c>
-      <c r="J28" s="23">
-        <f>J18+J26</f>
-        <v>-84749.999999999971</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="6" t="s">
+      <c r="A26" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="6" t="s">
+    <row r="27" spans="1:11">
+      <c r="A27" s="6" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A16:J17">
-    <sortCondition ref="A16:A17"/>
-    <sortCondition ref="B16:B17"/>
-    <sortCondition ref="C16:C17"/>
+  <sortState ref="A11:J11">
+    <sortCondition ref="A11"/>
+    <sortCondition ref="B11"/>
+    <sortCondition ref="C11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
